--- a/data/trans_orig/P33A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33A-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>834864</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>809483</v>
+        <v>812573</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>854011</v>
+        <v>854782</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8619300454183759</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8357265568139275</v>
+        <v>0.8389162137471676</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8816982703286022</v>
+        <v>0.8824943622136231</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>896</v>
@@ -764,19 +764,19 @@
         <v>960073</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>922413</v>
+        <v>923499</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>991925</v>
+        <v>993968</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7222088018035259</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6938794009430171</v>
+        <v>0.694695881842385</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7461689596628226</v>
+        <v>0.7477056814905976</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1674</v>
@@ -785,19 +785,19 @@
         <v>1794937</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1752687</v>
+        <v>1753509</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1834145</v>
+        <v>1834660</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7811019020533156</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7627159886562417</v>
+        <v>0.7630735612960455</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7981640549548465</v>
+        <v>0.7983881652503638</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>133734</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>114587</v>
+        <v>113816</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>159115</v>
+        <v>156025</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1380699545816241</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1183017296713978</v>
+        <v>0.117505637786377</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1642734431860726</v>
+        <v>0.1610837862528337</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>343</v>
@@ -835,19 +835,19 @@
         <v>369284</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>337432</v>
+        <v>335389</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>406944</v>
+        <v>405858</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2777911981964741</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2538310403371773</v>
+        <v>0.2522943185094024</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3061205990569829</v>
+        <v>0.3053041181576149</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>467</v>
@@ -856,19 +856,19 @@
         <v>503018</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>463810</v>
+        <v>463295</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>545268</v>
+        <v>544446</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2188980979466844</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2018359450451534</v>
+        <v>0.2016118347496365</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2372840113437583</v>
+        <v>0.2369264387039547</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>1671805</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1636740</v>
+        <v>1637608</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1701676</v>
+        <v>1701877</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8581118184845776</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8401134053282199</v>
+        <v>0.8405590047905679</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8734439652964872</v>
+        <v>0.8735473921751191</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1184</v>
@@ -981,19 +981,19 @@
         <v>1272202</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1231048</v>
+        <v>1229396</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1308711</v>
+        <v>1310031</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7308635726690597</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7072211348019897</v>
+        <v>0.706272454980944</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.751837813139711</v>
+        <v>0.7525961395812414</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2759</v>
@@ -1002,19 +1002,19 @@
         <v>2944007</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2892917</v>
+        <v>2890939</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2989905</v>
+        <v>2990019</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7980674383296211</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7842177565855925</v>
+        <v>0.7836816023040875</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8105095390350028</v>
+        <v>0.810540421074799</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>276432</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>246561</v>
+        <v>246360</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>311497</v>
+        <v>310629</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1418881815154224</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1265560347035128</v>
+        <v>0.1264526078248808</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1598865946717801</v>
+        <v>0.1594409952094321</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>434</v>
@@ -1052,19 +1052,19 @@
         <v>468481</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>431972</v>
+        <v>430652</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>509635</v>
+        <v>511287</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2691364273309403</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2481621868602887</v>
+        <v>0.2474038604187585</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2927788651980097</v>
+        <v>0.293727545019056</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>700</v>
@@ -1073,19 +1073,19 @@
         <v>744913</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>699015</v>
+        <v>698901</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>796003</v>
+        <v>797981</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2019325616703789</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1894904609649973</v>
+        <v>0.1894595789252011</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2157822434144075</v>
+        <v>0.2163183976959126</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>376973</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>355973</v>
+        <v>356902</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>394375</v>
+        <v>394098</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7889666260929538</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7450147959897809</v>
+        <v>0.7469609905869571</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8253870480679422</v>
+        <v>0.8248083613935092</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>312</v>
@@ -1198,19 +1198,19 @@
         <v>353531</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>335614</v>
+        <v>334134</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>370897</v>
+        <v>371469</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7724832934175534</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7333348855711614</v>
+        <v>0.7301009220903897</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8104296741676752</v>
+        <v>0.8116786019634051</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>653</v>
@@ -1219,19 +1219,19 @@
         <v>730504</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>703611</v>
+        <v>702245</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>755514</v>
+        <v>755922</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7809024986886337</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7521543962101908</v>
+        <v>0.7506943977355202</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8076386531524234</v>
+        <v>0.8080738398428646</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>100833</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>83431</v>
+        <v>83708</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>121833</v>
+        <v>120904</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2110333739070463</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1746129519320578</v>
+        <v>0.1751916386064907</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.254985204010219</v>
+        <v>0.253039009413043</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>99</v>
@@ -1269,19 +1269,19 @@
         <v>104124</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>86758</v>
+        <v>86186</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>122041</v>
+        <v>123521</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2275167065824466</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1895703258323248</v>
+        <v>0.1883213980365948</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2666651144288384</v>
+        <v>0.2698990779096102</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>193</v>
@@ -1290,19 +1290,19 @@
         <v>204957</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>179947</v>
+        <v>179539</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>231850</v>
+        <v>233216</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2190975013113663</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1923613468475766</v>
+        <v>0.1919261601571353</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2478456037898092</v>
+        <v>0.2493056022644797</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>2883641</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2842684</v>
+        <v>2842103</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2925695</v>
+        <v>2924618</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8494688783849923</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8374037486886838</v>
+        <v>0.8372326254877895</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8618573209464709</v>
+        <v>0.8615400459067496</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2392</v>
@@ -1415,19 +1415,19 @@
         <v>2585806</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2535634</v>
+        <v>2527266</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2637725</v>
+        <v>2642011</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7330015648716827</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.71877934417608</v>
+        <v>0.7164072945142294</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.747719177371084</v>
+        <v>0.7489340701277497</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5086</v>
@@ -1436,19 +1436,19 @@
         <v>5469448</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5400046</v>
+        <v>5395410</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5535650</v>
+        <v>5535564</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.790115907213703</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7800900698202355</v>
+        <v>0.7794203780816267</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7996795081138764</v>
+        <v>0.7996670302102037</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>510999</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>468945</v>
+        <v>470022</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>551956</v>
+        <v>552537</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1505311216150077</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1381426790535291</v>
+        <v>0.1384599540932506</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1625962513113162</v>
+        <v>0.1627673745122105</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>876</v>
@@ -1486,19 +1486,19 @@
         <v>941889</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>889970</v>
+        <v>885684</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>992061</v>
+        <v>1000429</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2669984351283173</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.252280822628916</v>
+        <v>0.2510659298722503</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2812206558239199</v>
+        <v>0.2835927054857706</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1360</v>
@@ -1507,19 +1507,19 @@
         <v>1452888</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1386686</v>
+        <v>1386772</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1522290</v>
+        <v>1526926</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2098840927862971</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2003204918861236</v>
+        <v>0.2003329697897963</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2199099301797643</v>
+        <v>0.2205796219183735</v>
       </c>
     </row>
     <row r="15">
@@ -1850,19 +1850,19 @@
         <v>628761</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>607328</v>
+        <v>607459</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>647153</v>
+        <v>647209</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8442334678665948</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8154555459191336</v>
+        <v>0.8156321097332672</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8689290636406762</v>
+        <v>0.8690043187865437</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>633</v>
@@ -1871,19 +1871,19 @@
         <v>705838</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>676364</v>
+        <v>677665</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>734393</v>
+        <v>736671</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7242332160500921</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6939908303776998</v>
+        <v>0.695325914657741</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7535324675626076</v>
+        <v>0.7558690115030823</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1269</v>
@@ -1892,19 +1892,19 @@
         <v>1334599</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1297459</v>
+        <v>1299650</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1370351</v>
+        <v>1372392</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7762130586839207</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7546120252377231</v>
+        <v>0.7558867137652248</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.797006484916488</v>
+        <v>0.7981936665997704</v>
       </c>
     </row>
     <row r="5">
@@ -1921,19 +1921,19 @@
         <v>116010</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>97618</v>
+        <v>97562</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>137443</v>
+        <v>137312</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1557665321334052</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1310709363593236</v>
+        <v>0.1309956812134563</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1845444540808658</v>
+        <v>0.184367890266733</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>241</v>
@@ -1942,19 +1942,19 @@
         <v>268763</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>240208</v>
+        <v>237930</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>298237</v>
+        <v>296936</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2757667839499079</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2464675324373923</v>
+        <v>0.2441309884969179</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3060091696223</v>
+        <v>0.3046740853422594</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>358</v>
@@ -1963,19 +1963,19 @@
         <v>384773</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>349021</v>
+        <v>346980</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>421913</v>
+        <v>419722</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2237869413160793</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2029935150835121</v>
+        <v>0.20180633340023</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2453879747622772</v>
+        <v>0.2441132862347753</v>
       </c>
     </row>
     <row r="6">
@@ -2067,19 +2067,19 @@
         <v>1747050</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1713279</v>
+        <v>1711862</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1779989</v>
+        <v>1778641</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8507941192293996</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8343484085288381</v>
+        <v>0.8336579540806398</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8668354747378586</v>
+        <v>0.8661786591724003</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1426</v>
@@ -2088,19 +2088,19 @@
         <v>1484377</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1444845</v>
+        <v>1442176</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1520580</v>
+        <v>1521204</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7525275248822452</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7324863414527879</v>
+        <v>0.7311330132395837</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7708811319684759</v>
+        <v>0.7711973989936408</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3071</v>
@@ -2109,19 +2109,19 @@
         <v>3231426</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3180659</v>
+        <v>3178896</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>3284716</v>
+        <v>3282758</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8026482815819055</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7900383264824219</v>
+        <v>0.7896004953947739</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.815884918885164</v>
+        <v>0.8153985100111493</v>
       </c>
     </row>
     <row r="8">
@@ -2138,19 +2138,19 @@
         <v>306384</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>273445</v>
+        <v>274793</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>340155</v>
+        <v>341572</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1492058807706003</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1331645252621415</v>
+        <v>0.1338213408275997</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.165651591471162</v>
+        <v>0.1663420459193602</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>467</v>
@@ -2159,19 +2159,19 @@
         <v>488145</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>451942</v>
+        <v>451318</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>527677</v>
+        <v>530346</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2474724751177548</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2291188680315241</v>
+        <v>0.2288026010063592</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2675136585472118</v>
+        <v>0.2688669867604164</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>753</v>
@@ -2180,19 +2180,19 @@
         <v>794529</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>741239</v>
+        <v>743197</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>845296</v>
+        <v>847059</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1973517184180945</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.184115081114836</v>
+        <v>0.1846014899888509</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.209961673517578</v>
+        <v>0.2103995046052261</v>
       </c>
     </row>
     <row r="9">
@@ -2284,19 +2284,19 @@
         <v>435977</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>414070</v>
+        <v>414469</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>453646</v>
+        <v>455593</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8031592061359834</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7628018086868938</v>
+        <v>0.7635366408370503</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.835708512760916</v>
+        <v>0.8392947333845883</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>366</v>
@@ -2305,19 +2305,19 @@
         <v>378034</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>354090</v>
+        <v>356138</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>398871</v>
+        <v>398519</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7021559458550485</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6576818890375583</v>
+        <v>0.661485582940544</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7408574237548798</v>
+        <v>0.740203456569187</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>769</v>
@@ -2326,19 +2326,19 @@
         <v>814011</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>784230</v>
+        <v>783667</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>844006</v>
+        <v>843730</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7528648104883107</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7253212572098797</v>
+        <v>0.7248003239533509</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.780606906543718</v>
+        <v>0.7803514308708268</v>
       </c>
     </row>
     <row r="11">
@@ -2355,19 +2355,19 @@
         <v>106851</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>89182</v>
+        <v>87235</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>128758</v>
+        <v>128359</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1968407938640167</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.164291487239084</v>
+        <v>0.1607052666154116</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2371981913131062</v>
+        <v>0.2364633591629496</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>151</v>
@@ -2376,19 +2376,19 @@
         <v>160357</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>139520</v>
+        <v>139872</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>184301</v>
+        <v>182253</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2978440541449515</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2591425762451203</v>
+        <v>0.259796543430813</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3423181109624419</v>
+        <v>0.338514417059456</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>245</v>
@@ -2397,19 +2397,19 @@
         <v>267207</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>237212</v>
+        <v>237488</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>296988</v>
+        <v>297551</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2471351895116894</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.219393093456282</v>
+        <v>0.2196485691291728</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2746787427901201</v>
+        <v>0.2751996760466487</v>
       </c>
     </row>
     <row r="12">
@@ -2501,19 +2501,19 @@
         <v>2811787</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2770452</v>
+        <v>2767633</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2851207</v>
+        <v>2853213</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.84159225362002</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8292205145468113</v>
+        <v>0.8283767023349979</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8533910606919015</v>
+        <v>0.8539915138014406</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2425</v>
@@ -2522,19 +2522,19 @@
         <v>2568250</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2510003</v>
+        <v>2517908</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2615778</v>
+        <v>2620965</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7368353582679836</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7201242925439666</v>
+        <v>0.7223921524138662</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7504713091469476</v>
+        <v>0.7519593166616367</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5109</v>
@@ -2543,19 +2543,19 @@
         <v>5380036</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5310049</v>
+        <v>5316255</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5453335</v>
+        <v>5452187</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7881052327953746</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7778530807629731</v>
+        <v>0.7787622365738334</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7988425962422829</v>
+        <v>0.7986743960432816</v>
       </c>
     </row>
     <row r="14">
@@ -2572,19 +2572,19 @@
         <v>529245</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>489825</v>
+        <v>487819</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>570580</v>
+        <v>573399</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.15840774637998</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1466089393080985</v>
+        <v>0.1460084861985597</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1707794854531886</v>
+        <v>0.1716232976650023</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>859</v>
@@ -2593,19 +2593,19 @@
         <v>917264</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>869736</v>
+        <v>864549</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>975511</v>
+        <v>967606</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2631646417320163</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2495286908530524</v>
+        <v>0.2480406833383632</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2798757074560334</v>
+        <v>0.2776078475861334</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1356</v>
@@ -2614,19 +2614,19 @@
         <v>1446509</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1373210</v>
+        <v>1374358</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1516496</v>
+        <v>1510290</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2118947672046255</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2011574037577171</v>
+        <v>0.2013256039567184</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2221469192370268</v>
+        <v>0.2212377634261666</v>
       </c>
     </row>
     <row r="15">
@@ -2957,19 +2957,19 @@
         <v>428492</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>408897</v>
+        <v>408365</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>445245</v>
+        <v>448479</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.7419283721489717</v>
+        <v>0.7419283721489718</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7079996272655338</v>
+        <v>0.7070781675332389</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7709355928010672</v>
+        <v>0.776536216097816</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>899</v>
@@ -2978,19 +2978,19 @@
         <v>511541</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>487730</v>
+        <v>490870</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>531991</v>
+        <v>532578</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.627702079513575</v>
+        <v>0.6277020795135752</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5984829724148815</v>
+        <v>0.6023367741960666</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6527951528259541</v>
+        <v>0.6535154253608555</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1401</v>
@@ -2999,19 +2999,19 @@
         <v>940033</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>912319</v>
+        <v>912123</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>971866</v>
+        <v>967885</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.6750779530755638</v>
+        <v>0.6750779530755642</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6551754182855438</v>
+        <v>0.6550344868997902</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6979386025868134</v>
+        <v>0.6950797880571397</v>
       </c>
     </row>
     <row r="5">
@@ -3028,19 +3028,19 @@
         <v>149046</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>132293</v>
+        <v>129059</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>168641</v>
+        <v>169173</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2580716278510282</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2290644071989328</v>
+        <v>0.2234637839021839</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2920003727344664</v>
+        <v>0.292921832466761</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>518</v>
@@ -3049,19 +3049,19 @@
         <v>303402</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>282952</v>
+        <v>282365</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>327213</v>
+        <v>324073</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3722979204864248</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3472048471740458</v>
+        <v>0.3464845746391447</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4015170275851186</v>
+        <v>0.3976632258039335</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>706</v>
@@ -3070,19 +3070,19 @@
         <v>452448</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>420615</v>
+        <v>424596</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>480162</v>
+        <v>480358</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.3249220469244359</v>
+        <v>0.324922046924436</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3020613974131866</v>
+        <v>0.3049202119428603</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.344824581714456</v>
+        <v>0.3449655131002099</v>
       </c>
     </row>
     <row r="6">
@@ -3174,19 +3174,19 @@
         <v>1887818</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1852239</v>
+        <v>1853439</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1924252</v>
+        <v>1921917</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8510076257159176</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8349689924125945</v>
+        <v>0.835509968466749</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8674315435253115</v>
+        <v>0.8663788806524622</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2195</v>
@@ -3195,19 +3195,19 @@
         <v>1649693</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1614752</v>
+        <v>1612799</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1686416</v>
+        <v>1689219</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7648301065749049</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.748630399856183</v>
+        <v>0.7477251777157222</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7818555742271414</v>
+        <v>0.7831551433656427</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3850</v>
@@ -3216,19 +3216,19 @@
         <v>3537512</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3483402</v>
+        <v>3479342</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>3584255</v>
+        <v>3585121</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8085234675255937</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7961562759277502</v>
+        <v>0.7952284630156887</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8192070229736507</v>
+        <v>0.8194048655557101</v>
       </c>
     </row>
     <row r="8">
@@ -3245,19 +3245,19 @@
         <v>330515</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>294081</v>
+        <v>296416</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>366094</v>
+        <v>364894</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1489923742840824</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1325684564746887</v>
+        <v>0.1336211193475377</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1650310075874056</v>
+        <v>0.164490031533251</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>710</v>
@@ -3266,19 +3266,19 @@
         <v>507248</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>470525</v>
+        <v>467722</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>542189</v>
+        <v>544142</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2351698934250951</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2181444257728587</v>
+        <v>0.2168448566343579</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2513696001438172</v>
+        <v>0.2522748222842779</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1038</v>
@@ -3287,19 +3287,19 @@
         <v>837762</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>791019</v>
+        <v>790153</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>891872</v>
+        <v>895932</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.1914765324744064</v>
+        <v>0.1914765324744063</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1807929770263494</v>
+        <v>0.18059513444429</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2038437240722497</v>
+        <v>0.2047715369843115</v>
       </c>
     </row>
     <row r="9">
@@ -3391,19 +3391,19 @@
         <v>586902</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>562795</v>
+        <v>564766</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>608046</v>
+        <v>605626</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8290652394090308</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7950113983210034</v>
+        <v>0.7977960416829105</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8589341151188976</v>
+        <v>0.8555149401274322</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>791</v>
@@ -3412,19 +3412,19 @@
         <v>574757</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>554671</v>
+        <v>554183</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>594493</v>
+        <v>592801</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.7886427234611075</v>
+        <v>0.7886427234611074</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7610830580575434</v>
+        <v>0.7604134500981327</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8157243040034123</v>
+        <v>0.8134022370988512</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1359</v>
@@ -3433,19 +3433,19 @@
         <v>1161658</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1130574</v>
+        <v>1132112</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1193487</v>
+        <v>1191750</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8085601966252186</v>
+        <v>0.8085601966252188</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7869241175329073</v>
+        <v>0.7879947638804433</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8307143628670903</v>
+        <v>0.8295050911765645</v>
       </c>
     </row>
     <row r="11">
@@ -3462,19 +3462,19 @@
         <v>121006</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>99862</v>
+        <v>102282</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>145113</v>
+        <v>143142</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1709347605909692</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1410658848811024</v>
+        <v>0.1444850598725677</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2049886016789966</v>
+        <v>0.2022039583170895</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>207</v>
@@ -3483,19 +3483,19 @@
         <v>154035</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>134299</v>
+        <v>135991</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>174121</v>
+        <v>174609</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2113572765388926</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1842756959965876</v>
+        <v>0.1865977629011489</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2389169419424563</v>
+        <v>0.2395865499018673</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>316</v>
@@ -3504,19 +3504,19 @@
         <v>275042</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>243213</v>
+        <v>244950</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>306126</v>
+        <v>304588</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1914398033747813</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1692856371329096</v>
+        <v>0.1704949088234355</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2130758824670927</v>
+        <v>0.212005236119557</v>
       </c>
     </row>
     <row r="12">
@@ -3608,19 +3608,19 @@
         <v>2903212</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2857878</v>
+        <v>2852738</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2952975</v>
+        <v>2950400</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.8285945162890662</v>
+        <v>0.8285945162890663</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8156558734293931</v>
+        <v>0.8141888380991239</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8427970468234233</v>
+        <v>0.8420621476230298</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3885</v>
@@ -3629,19 +3629,19 @@
         <v>2735991</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2691097</v>
+        <v>2687542</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2787769</v>
+        <v>2777817</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7393220369942586</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7271907498070869</v>
+        <v>0.7262299444471605</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7533133383215563</v>
+        <v>0.7506241617291176</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6610</v>
@@ -3650,19 +3650,19 @@
         <v>5639203</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5573123</v>
+        <v>5572639</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5712046</v>
+        <v>5705666</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7827383730848279</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7735662279859946</v>
+        <v>0.7734990626834028</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7928490982585297</v>
+        <v>0.7919636505493237</v>
       </c>
     </row>
     <row r="14">
@@ -3679,19 +3679,19 @@
         <v>600567</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>550804</v>
+        <v>553379</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>645901</v>
+        <v>651041</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1714054837109337</v>
+        <v>0.1714054837109338</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1572029531765768</v>
+        <v>0.1579378523769703</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1843441265706069</v>
+        <v>0.185811161900876</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1435</v>
@@ -3700,19 +3700,19 @@
         <v>964685</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>912907</v>
+        <v>922859</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1009579</v>
+        <v>1013134</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.2606779630057414</v>
+        <v>0.2606779630057415</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2466866616784438</v>
+        <v>0.2493758382708823</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.272809250192913</v>
+        <v>0.2737700555528395</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2060</v>
@@ -3721,19 +3721,19 @@
         <v>1565252</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1492409</v>
+        <v>1498789</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1631332</v>
+        <v>1631816</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.217261626915172</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2071509017414701</v>
+        <v>0.2080363494506764</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2264337720140052</v>
+        <v>0.2265009373165971</v>
       </c>
     </row>
     <row r="15">
